--- a/DesignerConfigs/Datas/GoodWeight.xlsx
+++ b/DesignerConfigs/Datas/GoodWeight.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="GoodWeight" sheetId="1" r:id="rId1"/>
@@ -226,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,12 +260,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,85 +609,85 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1238,7 +1232,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1297,7 +1291,7 @@
         <v>10001</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -1305,7 +1299,7 @@
         <v>10002</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -1313,7 +1307,7 @@
         <v>10003</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -1321,7 +1315,7 @@
         <v>10004</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -1329,7 +1323,7 @@
         <v>10005</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/GoodWeight.xlsx
+++ b/DesignerConfigs/Datas/GoodWeight.xlsx
@@ -1232,7 +1232,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/DesignerConfigs/Datas/GoodWeight.xlsx
+++ b/DesignerConfigs/Datas/GoodWeight.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="GoodWeight" sheetId="1" r:id="rId1"/>
@@ -1232,7 +1232,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1291,7 +1291,7 @@
         <v>10001</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -1307,7 +1307,7 @@
         <v>10003</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -1315,7 +1315,7 @@
         <v>10004</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:3">
